--- a/2025-BBTANAUAN/02 - Coronation/Sheets/JUDGE 2/01 - Production Number.xlsx
+++ b/2025-BBTANAUAN/02 - Coronation/Sheets/JUDGE 2/01 - Production Number.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC63343-48A3-4FE2-A723-1EF22B391CFF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC2CE60-69A6-4F01-84C2-EB699E83EDA5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PRODNUM" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -20,14 +20,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>BINIBINING TANAUAN 2025</t>
   </si>
   <si>
+    <t>PRODUCTION NUMBER COMPETITION</t>
+  </si>
+  <si>
+    <t>Requires a minimum total score of 45.00 per candidate</t>
+  </si>
+  <si>
     <t>Candidates</t>
   </si>
   <si>
+    <t>Beauty and Projection</t>
+  </si>
+  <si>
+    <t>Attitude / Personality</t>
+  </si>
+  <si>
+    <t>Production Number</t>
+  </si>
+  <si>
     <t>RANKING</t>
   </si>
   <si>
@@ -151,13 +166,7 @@
     <t>40. BRGY. SUPLANG</t>
   </si>
   <si>
-    <t>Requires a minimum total score of 7.50 per candidate</t>
-  </si>
-  <si>
-    <t>PRODUCTION NUMBER COMPETITION</t>
-  </si>
-  <si>
-    <t>Production Number</t>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -252,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -261,6 +270,64 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -274,64 +341,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -352,6 +365,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -363,10 +415,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -376,13 +428,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -391,8 +458,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -413,7 +482,63 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -422,83 +547,128 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -506,13 +676,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -533,72 +696,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2095500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>4713</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA235CE8-EFD2-4F03-B05A-67465C84606D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="15603" t="15603" r="15603" b="19149"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4219575" y="104775"/>
-          <a:ext cx="647700" cy="614313"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>825211</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>72737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>1990725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>36787</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B33F18-9466-4644-9B59-B8703404F28D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A3C003-E39F-46F0-8E36-6E83CBF45BDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -607,7 +721,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -620,8 +734,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="247650" y="142876"/>
-          <a:ext cx="733425" cy="581024"/>
+          <a:off x="939511" y="196562"/>
+          <a:ext cx="1165514" cy="897500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1110961</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>923926</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>40574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE566D1E-D6A1-4B15-84F2-6259FC222EDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="15603" t="15603" r="15603" b="19149"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5978236" y="148937"/>
+          <a:ext cx="1060740" cy="1006062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -896,9 +1059,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
@@ -907,615 +1070,903 @@
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" customWidth="1"/>
-    <col min="6" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" hidden="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="9">
+      <c r="B9" s="15"/>
+      <c r="C9" s="37">
+        <v>40</v>
+      </c>
+      <c r="D9" s="13">
         <v>10</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="13">
+        <v>10</v>
+      </c>
+      <c r="F9" s="38">
+        <f>SUM(C9:E9)</f>
+        <v>60</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12">
-        <f>_xlfn.RANK.AVG(C10,$C$10:$C$49,0)</f>
-        <v>1.5</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36">
+        <f t="shared" ref="F10:F50" si="0">SUM(C10:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="23">
+        <f>_xlfn.RANK.AVG(F10,$F$10:$F$49,0)</f>
+        <v>20.5</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15">
-        <f t="shared" ref="D11:D50" si="0">_xlfn.RANK.AVG(C11,$C$10:$C$49,0)</f>
-        <v>1.5</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="24">
+        <f t="shared" ref="G11:G50" si="1">_xlfn.RANK.AVG(F11,$F$10:$F$49,0)</f>
+        <v>20.5</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="17">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="28">
+        <v>0</v>
+      </c>
+      <c r="F12" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="17">
-        <v>0</v>
-      </c>
-      <c r="D35" s="18">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="28">
+        <v>0</v>
+      </c>
+      <c r="F35" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="25">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="41"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="41"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="41"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="41"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="41"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="41"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="41"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="41"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="41"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="41"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="41"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="24">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="22">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="C49" s="47"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="26">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
+      <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+      <c r="F50" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="H50" s="1"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Kbv6TYrEdnOg4j2g6gKTkluawKqfD8GxfuhKc+SOp7nX3ZlNUKaahI9OJFX7TxW/IaTmE2eMq7p9qTHqCPRbHA==" saltValue="3oLK2rnQ44ilNkVy/WieOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u51ktdTjhxEc2czKlD73VeK2jevwkjdH2xwIT8tzPEtidl2ruOq7WnSYALAvC/pIPKwXu7CBNMizyNfrAJ08iw==" saltValue="rGvLx4vVoFq7qQbkfc7oYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
-    <protectedRange sqref="C10:C11 C13:C34 C36:C49" name="SCOREBOARD"/>
+    <protectedRange sqref="C36:E49 C13:E34 C10:E11" name="SCOREBOARD"/>
   </protectedRanges>
   <mergeCells count="6">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
-  <conditionalFormatting sqref="D10:D49">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>D10=1</formula>
+  <conditionalFormatting sqref="G10:G49">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>G10=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C11 C13:C34 C36:C49">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>7.5</formula>
+  <conditionalFormatting sqref="C10:F11 C13:F34 C36:F49">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$F10&lt;45</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C36:C49 C10:C11 C13:C34" xr:uid="{0AE8EEE8-A88F-4C85-A22B-3E6630597BBE}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C36:E49 C13:E34 C10:E11" xr:uid="{86D024C1-9D45-4643-B8C2-E0B0FF3717CD}">
       <formula1>0</formula1>
       <formula2>C$9</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>